--- a/Banco Central/9/4/Fuerza de Trabajo, Empleo y Desocupación 1986 a 2021 - Mensual.xlsx
+++ b/Banco Central/9/4/Fuerza de Trabajo, Empleo y Desocupación 1986 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="430">
   <si>
     <t>Serie</t>
   </si>
@@ -1301,6 +1301,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E425"/>
+  <dimension ref="A1:E426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8781,6 +8784,23 @@
         <v>10</v>
       </c>
     </row>
+    <row r="426" spans="1:5">
+      <c r="A426" t="s">
+        <v>429</v>
+      </c>
+      <c r="B426">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C426">
+        <v>12.6</v>
+      </c>
+      <c r="D426">
+        <v>-15.4</v>
+      </c>
+      <c r="E426">
+        <v>9.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
